--- a/funvalues.xlsx
+++ b/funvalues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Stuff\Games\Games\The Binding of Isaac Rebirth Repentance\mods\Dies Irae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C137EE-4BCC-4CA1-8881-839A16BAF800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BDC615-2CBA-46A9-82BB-4684A11BA090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5B11D2BD-403F-41C2-9727-449EEB2CE6F3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="116">
   <si>
     <t>FUN Value!!</t>
   </si>
@@ -373,6 +373,15 @@
   </si>
   <si>
     <t>You know it won't change</t>
+  </si>
+  <si>
+    <t>Monster Isaac</t>
+  </si>
+  <si>
+    <t>Upon death, Isaac transform into Gaper</t>
+  </si>
+  <si>
+    <t>Short in-game cutscene</t>
   </si>
 </sst>
 </file>
@@ -817,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65207D12-6352-407B-9464-4AD8EE01CF17}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1533,30 +1542,38 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
+    <row r="17" spans="1:23" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>

--- a/funvalues.xlsx
+++ b/funvalues.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Stuff\Games\Games\The Binding of Isaac Rebirth Repentance\mods\Dies Irae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Stuff\Apps\Steam\steamapps\common\The Binding of Isaac Rebirth\mods\Dies Irae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BDC615-2CBA-46A9-82BB-4684A11BA090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E543A55C-F236-4B32-9698-9A7B5F051B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5B11D2BD-403F-41C2-9727-449EEB2CE6F3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="120">
   <si>
     <t>FUN Value!!</t>
   </si>
@@ -382,6 +382,18 @@
   </si>
   <si>
     <t>Short in-game cutscene</t>
+  </si>
+  <si>
+    <t>DEATH Floor</t>
+  </si>
+  <si>
+    <t>Has a low chance to appear after dying, every enemy is dead Isaac. New Isaac theme boss</t>
+  </si>
+  <si>
+    <t>Might be</t>
+  </si>
+  <si>
+    <t>Entire floor, enemies, boss</t>
   </si>
 </sst>
 </file>
@@ -405,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +460,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -476,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -503,6 +521,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -827,7 +848,7 @@
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1575,22 +1596,34 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+    <row r="18" spans="1:23" ht="69" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
